--- a/va_facility_data_2025-02-20/Wichita Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wichita%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wichita Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wichita%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9c1cf9009147493eab2a5f69a6380fe5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc4a054f8e6684b50aed4b4bb1e40455e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re13ac112fef84abbb0c2a0b8c1bac5e1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R31ae0009967d43479d57900d1d5d2386"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R787dd7eb40ce4766be6c62802dbc1a08"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdd95c091da8244bfb39fe3d947113c09"/>
   </x:sheets>
 </x:workbook>
 </file>
